--- a/sql-fhir/ig/ValueSet-siph-typeevenement-oncofair-valueset.xlsx
+++ b/sql-fhir/ig/ValueSet-siph-typeevenement-oncofair-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T13:48:16+00:00</t>
+    <t>2024-09-25T13:57:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
